--- a/FADP/students.xlsx
+++ b/FADP/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">Roll_No</t>
   </si>
@@ -28,10 +28,19 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shivam</t>
   </si>
   <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
     <t xml:space="preserve">XYZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC</t>
   </si>
 </sst>
 </file>
@@ -46,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,8 +115,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,36 +141,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/FADP/students.xlsx
+++ b/FADP/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">Roll_No</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math</t>
   </si>
   <si>
     <t xml:space="preserve">Shivam</t>
@@ -115,13 +124,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -141,13 +154,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -156,8 +169,17 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -165,10 +187,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -176,21 +207,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
